--- a/result of error driven.xlsx
+++ b/result of error driven.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xintao\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xintao\Desktop\error-driven-array\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="54">
   <si>
     <t>2-way for HSQLDB</t>
   </si>
@@ -180,6 +180,18 @@
   </si>
   <si>
     <t>测试用例对 F-measure的贡献</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>elda</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>fglt</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tomcat</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -1111,8 +1123,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T231"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N41" sqref="N41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1557,6 +1569,48 @@
       <c r="B14">
         <v>26.433333333333302</v>
       </c>
+      <c r="E14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" t="s">
+        <v>52</v>
+      </c>
+      <c r="G14">
+        <v>42.9</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>65</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="Q14">
+        <v>114.1</v>
+      </c>
+      <c r="R14">
+        <v>0.95</v>
+      </c>
+      <c r="S14">
+        <v>0.93</v>
+      </c>
+      <c r="T14">
+        <v>0.94</v>
+      </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
@@ -1565,6 +1619,45 @@
       <c r="B15">
         <v>6.6366825715530098</v>
       </c>
+      <c r="F15" t="s">
+        <v>53</v>
+      </c>
+      <c r="G15">
+        <v>118.6</v>
+      </c>
+      <c r="H15">
+        <v>0.71</v>
+      </c>
+      <c r="I15">
+        <v>0.76</v>
+      </c>
+      <c r="J15">
+        <v>0.72</v>
+      </c>
+      <c r="L15">
+        <v>288.8</v>
+      </c>
+      <c r="M15">
+        <v>0.75</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>0.86</v>
+      </c>
+      <c r="Q15">
+        <v>668.6</v>
+      </c>
+      <c r="R15">
+        <v>0.75</v>
+      </c>
+      <c r="S15">
+        <v>1</v>
+      </c>
+      <c r="T15">
+        <v>0.86</v>
+      </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
@@ -1714,6 +1807,10 @@
       <c r="B30">
         <v>0.48189440982669801</v>
       </c>
+      <c r="G30">
+        <f t="shared" ref="G30" si="1">(J14+O14+T14)/(G14+L14+Q14)</f>
+        <v>1.3243243243243243E-2</v>
+      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
@@ -1722,6 +1819,10 @@
       <c r="B31">
         <v>0.36666666666666597</v>
       </c>
+      <c r="G31">
+        <f>(J15+O15+T15)/(G15+L15+Q15)</f>
+        <v>2.2676579925650555E-3</v>
+      </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
@@ -1789,7 +1890,7 @@
         <v>1</v>
       </c>
       <c r="K35">
-        <f t="shared" ref="K35:K36" si="1">1/F35</f>
+        <f t="shared" ref="K35:K36" si="2">1/F35</f>
         <v>2.0366598778004074E-2</v>
       </c>
     </row>
@@ -1816,7 +1917,7 @@
         <v>1</v>
       </c>
       <c r="K36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.1701388888888889E-6</v>
       </c>
     </row>
@@ -1854,6 +1955,25 @@
       <c r="B38">
         <v>0.16063146994223201</v>
       </c>
+      <c r="E38" t="s">
+        <v>51</v>
+      </c>
+      <c r="F38">
+        <v>210.8</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="K38">
+        <f>1/F38</f>
+        <v>4.7438330170777986E-3</v>
+      </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
@@ -1935,6 +2055,9 @@
       <c r="I44">
         <v>5.3412462908011896E-3</v>
       </c>
+      <c r="J44">
+        <v>1.3243243243243243E-2</v>
+      </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
@@ -1958,6 +2081,9 @@
       <c r="I45">
         <v>2.6017753290480563E-3</v>
       </c>
+      <c r="J45">
+        <v>2.2676579925650555E-3</v>
+      </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
@@ -1981,6 +2107,9 @@
       <c r="I46">
         <v>1.1622501162250117E-3</v>
       </c>
+      <c r="J46">
+        <v>4.7438330170777986E-3</v>
+      </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
@@ -1998,7 +2127,7 @@
         <v>1.11022302462515E-16</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
         <v>23</v>
       </c>
@@ -2006,7 +2135,7 @@
         <v>0.83333333333333304</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
         <v>24</v>
       </c>
@@ -2014,7 +2143,7 @@
         <v>1.11022302462515E-16</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
         <v>27</v>
       </c>
@@ -2023,19 +2152,23 @@
         <v>1</v>
       </c>
       <c r="G51">
-        <f t="shared" ref="G51:I51" si="2">G44/MAX(G44,G45,G46)</f>
+        <f t="shared" ref="G51:I51" si="3">G44/MAX(G44,G45,G46)</f>
         <v>0.58213674087735645</v>
       </c>
       <c r="H51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.86528684377798171</v>
       </c>
       <c r="I51">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.15">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="J51">
+        <f>J44/MAX(J44,J45,J46)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
         <v>1</v>
       </c>
@@ -2047,19 +2180,23 @@
         <v>0.78251758525509851</v>
       </c>
       <c r="G52">
-        <f t="shared" ref="G52:H52" si="3">G45/MAX(G44,G45,G46)</f>
+        <f t="shared" ref="G52:H52" si="4">G45/MAX(G44,G45,G46)</f>
         <v>0.18041889519454554</v>
       </c>
       <c r="H52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.56512141280353234</v>
       </c>
       <c r="I52">
         <f>I45/MAX(I44,I45,I46)</f>
         <v>0.48711015882733033</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J52">
+        <f>J45/MAX(J44,J45,J46)</f>
+        <v>0.17123131780593276</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
         <v>2</v>
       </c>
@@ -2071,19 +2208,23 @@
         <v>0.57674709951522429</v>
       </c>
       <c r="G53">
-        <f t="shared" ref="G53:H53" si="4">G46/MAX(G44,G45,G46)</f>
+        <f t="shared" ref="G53:H53" si="5">G46/MAX(G44,G45,G46)</f>
         <v>1</v>
       </c>
       <c r="H53">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="I53">
         <f>I46/MAX(I44,I45,I46)</f>
         <v>0.21759904953768264</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J53">
+        <f>J46/MAX(J44,J45,J46)</f>
+        <v>0.35820779924873175</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
         <v>3</v>
       </c>
@@ -2091,7 +2232,7 @@
         <v>0.36666666666666597</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
         <v>4</v>
       </c>
@@ -2099,7 +2240,7 @@
         <v>0.48189440982669801</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
         <v>5</v>
       </c>
@@ -2118,8 +2259,11 @@
       <c r="I56">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
         <v>6</v>
       </c>
@@ -2138,8 +2282,11 @@
       <c r="I57">
         <v>0.48711015882733033</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J57">
+        <v>0.17123131780593276</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
         <v>7</v>
       </c>
@@ -2158,8 +2305,11 @@
       <c r="I58">
         <v>0.21759904953768264</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J58">
+        <v>0.35820779924873175</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
         <v>8</v>
       </c>
@@ -2167,7 +2317,7 @@
         <v>0.48189440982669801</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
         <v>9</v>
       </c>
@@ -2175,7 +2325,7 @@
         <v>0.78888888888888897</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
         <v>10</v>
       </c>
@@ -2183,7 +2333,7 @@
         <v>0.16063146994223201</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
         <v>11</v>
       </c>
@@ -2191,7 +2341,7 @@
         <v>0.78888888888888897</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
         <v>12</v>
       </c>
@@ -2199,7 +2349,7 @@
         <v>0.16063146994223201</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
         <v>13</v>
       </c>

--- a/result of error driven.xlsx
+++ b/result of error driven.xlsx
@@ -1123,8 +1123,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T231"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N41" sqref="N41"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
